--- a/nodes_source_analyses/energy/energy_power_nuclear_gen3_uranium_oxide.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_nuclear_gen3_uranium_oxide.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -311,9 +319,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -666,17 +671,21 @@
   <si>
     <t>http://refman.et-model.com/publications/1969</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -871,11 +880,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1567,7 +1571,7 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1578,43 +1582,43 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1631,10 +1635,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1643,7 +1647,7 @@
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1656,10 +1660,10 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1671,7 +1675,7 @@
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1687,7 +1691,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1700,17 +1704,17 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1740,32 +1744,32 @@
     <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1779,31 +1783,31 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2065,80 +2069,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2258,7 +2197,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2695,52 +2634,52 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -2749,29 +2688,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="94" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="95"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="96"/>
       <c r="C10" s="97"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="96" t="s">
         <v>76</v>
@@ -2780,33 +2719,33 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="96"/>
       <c r="C12" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="96"/>
       <c r="C13" s="99" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="96"/>
       <c r="C14" s="97" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="96"/>
       <c r="C15" s="97"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="96" t="s">
         <v>81</v>
@@ -2815,49 +2754,49 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="96"/>
       <c r="C17" s="101" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="96"/>
       <c r="C18" s="102" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="96"/>
       <c r="C19" s="103" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="104"/>
       <c r="C20" s="105" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="104"/>
       <c r="C21" s="106" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="104"/>
       <c r="C22" s="107" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="104"/>
       <c r="C23" s="108" t="s">
         <v>89</v>
@@ -2866,49 +2805,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="156" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="C2" s="157"/>
       <c r="D2" s="157"/>
@@ -2916,7 +2850,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="159"/>
       <c r="C3" s="160"/>
       <c r="D3" s="160"/>
@@ -2924,7 +2858,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="162"/>
       <c r="C4" s="163"/>
       <c r="D4" s="163"/>
@@ -2932,10 +2866,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2946,7 +2880,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="109"/>
       <c r="C7" s="15" t="s">
         <v>33</v>
@@ -2967,7 +2901,7 @@
       </c>
       <c r="J7" s="116"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2978,10 +2912,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2991,10 +2925,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="125" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -3007,11 +2941,11 @@
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
       <c r="I10" s="146" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>35</v>
@@ -3031,7 +2965,7 @@
       <c r="J11" s="117"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>36</v>
@@ -3051,7 +2985,7 @@
       <c r="J12" s="117"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>38</v>
@@ -3071,7 +3005,7 @@
       <c r="J13" s="117"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>11</v>
@@ -3091,7 +3025,7 @@
       <c r="J14" s="117"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>41</v>
@@ -3111,7 +3045,7 @@
       <c r="J15" s="117"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>42</v>
@@ -3131,7 +3065,7 @@
       <c r="J16" s="117"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>43</v>
@@ -3153,7 +3087,7 @@
       </c>
       <c r="J17" s="117"/>
     </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>44</v>
@@ -3174,7 +3108,7 @@
       </c>
       <c r="J18" s="117"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="64" t="s">
         <v>64</v>
@@ -3195,7 +3129,7 @@
       </c>
       <c r="J19" s="117"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="64" t="s">
         <v>65</v>
@@ -3216,7 +3150,7 @@
       </c>
       <c r="J20" s="117"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="64" t="s">
         <v>66</v>
@@ -3237,7 +3171,7 @@
       </c>
       <c r="J21" s="117"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="64" t="s">
         <v>67</v>
@@ -3258,7 +3192,7 @@
       </c>
       <c r="J22" s="117"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="64" t="s">
         <v>68</v>
@@ -3279,7 +3213,7 @@
       </c>
       <c r="J23" s="117"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="37"/>
       <c r="C24" s="84"/>
       <c r="D24" s="112"/>
@@ -3290,10 +3224,10 @@
       <c r="I24" s="32"/>
       <c r="J24" s="117"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="112"/>
       <c r="E25" s="113"/>
@@ -3303,7 +3237,7 @@
       <c r="I25" s="32"/>
       <c r="J25" s="117"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>45</v>
@@ -3321,11 +3255,11 @@
       </c>
       <c r="H26" s="33"/>
       <c r="I26" s="146" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J26" s="117"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>46</v>
@@ -3346,7 +3280,7 @@
       </c>
       <c r="J27" s="117"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>13</v>
@@ -3367,7 +3301,7 @@
       </c>
       <c r="J28" s="117"/>
     </row>
-    <row r="29" spans="2:10" ht="16" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
         <v>47</v>
@@ -3385,11 +3319,11 @@
       </c>
       <c r="H29" s="33"/>
       <c r="I29" s="146" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J29" s="117"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>48</v>
@@ -3407,11 +3341,11 @@
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="146" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J30" s="117"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>49</v>
@@ -3429,11 +3363,11 @@
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="147" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J31" s="117"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>50</v>
@@ -3454,7 +3388,7 @@
       </c>
       <c r="J32" s="117"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>53</v>
@@ -3475,7 +3409,7 @@
       </c>
       <c r="J33" s="117"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>40</v>
@@ -3494,7 +3428,7 @@
       </c>
       <c r="J34" s="117"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="37"/>
       <c r="C35" s="33"/>
       <c r="D35" s="19"/>
@@ -3505,7 +3439,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="117"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="14" t="s">
         <v>8</v>
@@ -3518,7 +3452,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="117"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="33" t="s">
         <v>39</v>
@@ -3536,11 +3470,11 @@
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="146" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J37" s="117"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="33" t="s">
         <v>51</v>
@@ -3558,11 +3492,11 @@
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="155" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J38" s="117"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="33" t="s">
         <v>52</v>
@@ -3580,11 +3514,11 @@
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="155" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J39" s="117"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="37"/>
       <c r="C40" s="33" t="s">
         <v>37</v>
@@ -3603,10 +3537,10 @@
       </c>
       <c r="J40" s="117"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="37"/>
       <c r="C41" s="130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="111">
@@ -3620,10 +3554,10 @@
       </c>
       <c r="J41" s="117"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="37"/>
       <c r="C42" s="130" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="111">
@@ -3637,10 +3571,10 @@
       </c>
       <c r="J42" s="117"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="37"/>
       <c r="C43" s="130" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="111">
@@ -3654,10 +3588,10 @@
       </c>
       <c r="J43" s="117"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="37"/>
       <c r="C44" s="130" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="111">
@@ -3671,10 +3605,10 @@
       </c>
       <c r="J44" s="117"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="37"/>
       <c r="C45" s="130" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="111">
@@ -3688,7 +3622,7 @@
       </c>
       <c r="J45" s="117"/>
     </row>
-    <row r="46" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="46" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="38"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
@@ -3705,43 +3639,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3756,26 +3653,25 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="67" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="67" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="67" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="67" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="67" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="68" customWidth="1"/>
-    <col min="10" max="10" width="2.375" style="68" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="68" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="67" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="67" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="67" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="67" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="67" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="68" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="68" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="68" customWidth="1"/>
     <col min="12" max="12" width="3" style="68" customWidth="1"/>
     <col min="13" max="13" width="60" style="67" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="67"/>
+    <col min="14" max="16384" width="10.7109375" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="69"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -3789,10 +3685,10 @@
       <c r="L2" s="71"/>
       <c r="M2" s="70"/>
     </row>
-    <row r="3" spans="2:13" s="21" customFormat="1">
+    <row r="3" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="122" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3804,18 +3700,18 @@
       </c>
       <c r="H3" s="122"/>
       <c r="I3" s="62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J3" s="62"/>
       <c r="K3" s="62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L3" s="62"/>
       <c r="M3" s="122" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -3829,10 +3725,10 @@
       <c r="L4" s="121"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="2:13" ht="16" thickBot="1">
+    <row r="5" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="72"/>
       <c r="C5" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3845,7 +3741,7 @@
       <c r="L5" s="10"/>
       <c r="M5" s="136"/>
     </row>
-    <row r="6" spans="2:13" ht="16" thickBot="1">
+    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72"/>
       <c r="C6" s="135" t="s">
         <v>30</v>
@@ -3868,10 +3764,10 @@
       <c r="L6" s="74"/>
       <c r="M6" s="64"/>
     </row>
-    <row r="7" spans="2:13" ht="16" thickBot="1">
+    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="72"/>
       <c r="C7" s="124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="75"/>
       <c r="E7" s="75"/>
@@ -3891,7 +3787,7 @@
       <c r="L7" s="74"/>
       <c r="M7" s="64"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="72"/>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
@@ -3905,7 +3801,7 @@
       <c r="L8" s="81"/>
       <c r="M8" s="123"/>
     </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1">
+    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="72"/>
       <c r="C9" s="29" t="s">
         <v>8</v>
@@ -3921,10 +3817,10 @@
       <c r="L9" s="12"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
+    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="72"/>
       <c r="C10" s="124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
@@ -3944,10 +3840,10 @@
       </c>
       <c r="L10" s="81"/>
       <c r="M10" s="141" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="16" thickBot="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="72"/>
       <c r="C11" s="85" t="s">
         <v>1</v>
@@ -3970,10 +3866,10 @@
       <c r="K11" s="133"/>
       <c r="L11" s="82"/>
       <c r="M11" s="134" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="16" thickBot="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="72"/>
       <c r="C12" s="87" t="s">
         <v>6</v>
@@ -3997,7 +3893,7 @@
       <c r="L12" s="82"/>
       <c r="M12" s="128"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="72"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -4011,10 +3907,10 @@
       <c r="L13" s="82"/>
       <c r="M13" s="64"/>
     </row>
-    <row r="14" spans="2:13" ht="16" thickBot="1">
+    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="72"/>
       <c r="C14" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -4027,10 +3923,10 @@
       <c r="L14" s="12"/>
       <c r="M14" s="64"/>
     </row>
-    <row r="15" spans="2:13" ht="16" thickBot="1">
+    <row r="15" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="72"/>
       <c r="C15" s="118" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -4048,7 +3944,7 @@
       <c r="L15" s="81"/>
       <c r="M15" s="129"/>
     </row>
-    <row r="16" spans="2:13" ht="16" thickBot="1">
+    <row r="16" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="72"/>
       <c r="C16" s="89" t="s">
         <v>9</v>
@@ -4056,7 +3952,7 @@
       <c r="D16" s="89"/>
       <c r="E16" s="89"/>
       <c r="F16" s="119" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="86">
         <f>I16</f>
@@ -4072,15 +3968,15 @@
       <c r="L16" s="81"/>
       <c r="M16" s="138"/>
     </row>
-    <row r="17" spans="2:13" ht="16" thickBot="1">
+    <row r="17" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="72"/>
       <c r="C17" s="127" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="131" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="90">
         <f>ROUND((G18*G6*1000),2)</f>
@@ -4093,15 +3989,15 @@
       <c r="L17" s="81"/>
       <c r="M17" s="144"/>
     </row>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
+    <row r="18" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="72"/>
       <c r="C18" s="118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="120" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="90">
         <f>ROUND(I18,2)</f>
@@ -4117,10 +4013,10 @@
       <c r="L18" s="81"/>
       <c r="M18" s="144"/>
     </row>
-    <row r="19" spans="2:13" ht="16" thickBot="1">
+    <row r="19" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72"/>
       <c r="C19" s="127" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="92"/>
       <c r="E19" s="92"/>
@@ -4137,18 +4033,18 @@
       <c r="K19" s="140"/>
       <c r="L19" s="81"/>
       <c r="M19" s="144" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="16" thickBot="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="72"/>
       <c r="C20" s="118" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" s="91"/>
       <c r="E20" s="91"/>
       <c r="F20" s="119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="93">
         <f>ROUND(I20,1)</f>
@@ -4164,10 +4060,10 @@
       <c r="L20" s="81"/>
       <c r="M20" s="134"/>
     </row>
-    <row r="21" spans="2:13" ht="16" thickBot="1">
+    <row r="21" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="72"/>
       <c r="C21" s="124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="91"/>
       <c r="E21" s="91"/>
@@ -4185,15 +4081,15 @@
       <c r="L21" s="81"/>
       <c r="M21" s="134"/>
     </row>
-    <row r="22" spans="2:13" ht="16" thickBot="1">
+    <row r="22" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="72"/>
       <c r="C22" s="124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="91"/>
       <c r="E22" s="91"/>
       <c r="F22" s="143" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G22" s="93">
         <f>ROUND(I22,0)</f>
@@ -4208,18 +4104,18 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
       <c r="M22" s="134" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="16" thickBot="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="72"/>
       <c r="C23" s="124" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D23" s="91"/>
       <c r="E23" s="91"/>
       <c r="F23" s="137" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="93">
         <f>G24*G6</f>
@@ -4232,15 +4128,15 @@
       <c r="L23" s="81"/>
       <c r="M23" s="134"/>
     </row>
-    <row r="24" spans="2:13" ht="16" thickBot="1">
+    <row r="24" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="72"/>
       <c r="C24" s="124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="91"/>
       <c r="E24" s="91"/>
       <c r="F24" s="137" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" s="93">
         <v>7800</v>
@@ -4255,11 +4151,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4274,22 +4165,22 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
     <col min="10" max="10" width="34" style="46" customWidth="1"/>
-    <col min="11" max="11" width="51.625" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="45"/>
+    <col min="11" max="11" width="51.5703125" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -4301,7 +4192,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>23</v>
@@ -4315,7 +4206,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -4327,7 +4218,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>31</v>
@@ -4343,19 +4234,19 @@
         <v>32</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>62</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -4367,12 +4258,12 @@
       <c r="J6" s="52"/>
       <c r="K6" s="51"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="50"/>
       <c r="C7" s="59"/>
       <c r="D7" s="58"/>
       <c r="E7" s="53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="58" t="s">
         <v>10</v>
@@ -4381,20 +4272,20 @@
         <v>2011</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I7" s="58"/>
       <c r="J7" s="61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K7" s="58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="50"/>
       <c r="C8" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="53"/>
@@ -4405,10 +4296,10 @@
       <c r="J8" s="61"/>
       <c r="K8" s="58"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="50"/>
       <c r="C9" s="59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="53"/>
@@ -4419,7 +4310,7 @@
       <c r="J9" s="61"/>
       <c r="K9" s="58"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="50"/>
       <c r="C10" s="59" t="s">
         <v>60</v>
@@ -4433,10 +4324,10 @@
       <c r="J10" s="61"/>
       <c r="K10" s="58"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="50"/>
       <c r="C11" s="59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="53"/>
@@ -4447,7 +4338,7 @@
       <c r="J11" s="61"/>
       <c r="K11" s="58"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="50"/>
       <c r="C12" s="59" t="s">
         <v>6</v>
@@ -4461,7 +4352,7 @@
       <c r="J12" s="61"/>
       <c r="K12" s="58"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="50"/>
       <c r="C13" s="59" t="s">
         <v>1</v>
@@ -4475,10 +4366,10 @@
       <c r="J13" s="61"/>
       <c r="K13" s="58"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="50"/>
       <c r="C14" s="59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="53"/>
@@ -4489,7 +4380,7 @@
       <c r="J14" s="61"/>
       <c r="K14" s="58"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="50"/>
       <c r="C15" s="59"/>
       <c r="D15" s="58"/>
@@ -4501,15 +4392,15 @@
       <c r="J15" s="61"/>
       <c r="K15" s="58"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="50"/>
       <c r="C16" s="59"/>
       <c r="D16" s="58"/>
       <c r="E16" s="53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" s="63">
         <v>2009</v>
@@ -4519,16 +4410,16 @@
       </c>
       <c r="I16" s="58"/>
       <c r="J16" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K16" s="60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="50"/>
       <c r="C17" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="53"/>
@@ -4545,11 +4436,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4561,22 +4447,22 @@
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="148" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="148" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="148" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="148" customWidth="1"/>
     <col min="3" max="3" width="15" style="148" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="148"/>
+    <col min="4" max="16384" width="10.7109375" style="148"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13" s="21" customFormat="1">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="152"/>
       <c r="C2" s="153" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="153" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="153"/>
       <c r="F2" s="153"/>
@@ -4588,7 +4474,7 @@
       <c r="L2" s="153"/>
       <c r="M2" s="154"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="149"/>
       <c r="C3" s="150"/>
       <c r="D3" s="150"/>
@@ -4602,10 +4488,10 @@
       <c r="L3" s="150"/>
       <c r="M3" s="151"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="149"/>
       <c r="C4" s="150" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" s="150"/>
       <c r="E4" s="150"/>
@@ -4618,10 +4504,10 @@
       <c r="L4" s="150"/>
       <c r="M4" s="151"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="149"/>
       <c r="C5" s="150" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="150"/>
       <c r="E5" s="150"/>
@@ -4634,7 +4520,7 @@
       <c r="L5" s="150"/>
       <c r="M5" s="151"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="149"/>
       <c r="C6" s="150"/>
       <c r="D6" s="150"/>
@@ -4648,7 +4534,7 @@
       <c r="L6" s="150"/>
       <c r="M6" s="151"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="149"/>
       <c r="C7" s="150"/>
       <c r="D7" s="150"/>
@@ -4662,7 +4548,7 @@
       <c r="L7" s="150"/>
       <c r="M7" s="151"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="149"/>
       <c r="C8" s="150"/>
       <c r="D8" s="150"/>
@@ -4676,7 +4562,7 @@
       <c r="L8" s="150"/>
       <c r="M8" s="151"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="149"/>
       <c r="C9" s="150"/>
       <c r="D9" s="150"/>
@@ -4690,7 +4576,7 @@
       <c r="L9" s="150"/>
       <c r="M9" s="151"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="149"/>
       <c r="C10" s="150"/>
       <c r="D10" s="150"/>
@@ -4704,7 +4590,7 @@
       <c r="L10" s="150"/>
       <c r="M10" s="151"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="149"/>
       <c r="C11" s="150"/>
       <c r="D11" s="150"/>
@@ -4718,7 +4604,7 @@
       <c r="L11" s="150"/>
       <c r="M11" s="151"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="149"/>
       <c r="C12" s="150"/>
       <c r="D12" s="150"/>
@@ -4732,7 +4618,7 @@
       <c r="L12" s="150"/>
       <c r="M12" s="151"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="149"/>
       <c r="C13" s="150"/>
       <c r="D13" s="150"/>
@@ -4746,7 +4632,7 @@
       <c r="L13" s="150"/>
       <c r="M13" s="151"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="149"/>
       <c r="C14" s="150"/>
       <c r="D14" s="150"/>
@@ -4760,7 +4646,7 @@
       <c r="L14" s="150"/>
       <c r="M14" s="151"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="149"/>
       <c r="C15" s="150"/>
       <c r="D15" s="150"/>
@@ -4774,7 +4660,7 @@
       <c r="L15" s="150"/>
       <c r="M15" s="151"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="149"/>
       <c r="C16" s="150"/>
       <c r="D16" s="150"/>
@@ -4788,7 +4674,7 @@
       <c r="L16" s="150"/>
       <c r="M16" s="151"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="149"/>
       <c r="C17" s="150"/>
       <c r="D17" s="150"/>
@@ -4802,7 +4688,7 @@
       <c r="L17" s="150"/>
       <c r="M17" s="151"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="149"/>
       <c r="C18" s="150"/>
       <c r="D18" s="150"/>
@@ -4816,7 +4702,7 @@
       <c r="L18" s="150"/>
       <c r="M18" s="151"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="149"/>
       <c r="C19" s="150"/>
       <c r="D19" s="150"/>
@@ -4830,7 +4716,7 @@
       <c r="L19" s="150"/>
       <c r="M19" s="151"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="149"/>
       <c r="C20" s="150"/>
       <c r="D20" s="150"/>
@@ -4844,7 +4730,7 @@
       <c r="L20" s="150"/>
       <c r="M20" s="151"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="149"/>
       <c r="C21" s="150"/>
       <c r="D21" s="150"/>
@@ -4858,7 +4744,7 @@
       <c r="L21" s="150"/>
       <c r="M21" s="151"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="149"/>
       <c r="C22" s="150"/>
       <c r="D22" s="150"/>
@@ -4872,16 +4758,16 @@
       <c r="L22" s="150"/>
       <c r="M22" s="151"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="149"/>
       <c r="C23" s="150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D23" s="150">
         <v>6</v>
       </c>
       <c r="E23" s="150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F23" s="150"/>
       <c r="G23" s="150"/>
@@ -4892,16 +4778,16 @@
       <c r="L23" s="150"/>
       <c r="M23" s="151"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="149"/>
       <c r="C24" s="150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="150">
         <v>3400</v>
       </c>
       <c r="E24" s="150" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F24" s="150"/>
       <c r="G24" s="150"/>
@@ -4912,16 +4798,16 @@
       <c r="L24" s="150"/>
       <c r="M24" s="151"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="149"/>
       <c r="C25" s="150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="150">
         <v>63</v>
       </c>
       <c r="E25" s="150" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25" s="150"/>
       <c r="G25" s="150"/>
@@ -4932,16 +4818,16 @@
       <c r="L25" s="150"/>
       <c r="M25" s="151"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="149"/>
       <c r="C26" s="150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="150">
         <v>1.26</v>
       </c>
       <c r="E26" s="150" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F26" s="150"/>
       <c r="G26" s="150"/>
@@ -4952,7 +4838,7 @@
       <c r="L26" s="150"/>
       <c r="M26" s="151"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="149"/>
       <c r="C27" s="150"/>
       <c r="D27" s="150">
@@ -4960,7 +4846,7 @@
         <v>12.6</v>
       </c>
       <c r="E27" s="150" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F27" s="150"/>
       <c r="G27" s="150"/>
@@ -4971,7 +4857,7 @@
       <c r="L27" s="150"/>
       <c r="M27" s="151"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="149"/>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -4985,7 +4871,7 @@
       <c r="L28" s="150"/>
       <c r="M28" s="151"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="149"/>
       <c r="C29" s="150"/>
       <c r="D29" s="150"/>
@@ -4999,7 +4885,7 @@
       <c r="L29" s="150"/>
       <c r="M29" s="151"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="149"/>
       <c r="C30" s="150"/>
       <c r="D30" s="150"/>
@@ -5013,7 +4899,7 @@
       <c r="L30" s="150"/>
       <c r="M30" s="151"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="149"/>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -5027,7 +4913,7 @@
       <c r="L31" s="150"/>
       <c r="M31" s="151"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="149"/>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -5041,7 +4927,7 @@
       <c r="L32" s="150"/>
       <c r="M32" s="151"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="149"/>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -5055,7 +4941,7 @@
       <c r="L33" s="150"/>
       <c r="M33" s="151"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="149"/>
       <c r="C34" s="150"/>
       <c r="D34" s="150"/>
@@ -5069,7 +4955,7 @@
       <c r="L34" s="150"/>
       <c r="M34" s="151"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="149"/>
       <c r="C35" s="150"/>
       <c r="D35" s="150"/>
@@ -5083,7 +4969,7 @@
       <c r="L35" s="150"/>
       <c r="M35" s="151"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="149"/>
       <c r="C36" s="150"/>
       <c r="D36" s="150"/>
@@ -5097,7 +4983,7 @@
       <c r="L36" s="150"/>
       <c r="M36" s="151"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="149"/>
       <c r="C37" s="150"/>
       <c r="D37" s="150"/>
@@ -5111,7 +4997,7 @@
       <c r="L37" s="150"/>
       <c r="M37" s="151"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="149"/>
       <c r="C38" s="150"/>
       <c r="D38" s="150"/>
@@ -5125,16 +5011,16 @@
       <c r="L38" s="150"/>
       <c r="M38" s="151"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="149"/>
       <c r="C39" s="150" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D39" s="150">
         <v>0.1</v>
       </c>
       <c r="E39" s="150" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F39" s="150"/>
       <c r="G39" s="150"/>
@@ -5145,7 +5031,7 @@
       <c r="L39" s="150"/>
       <c r="M39" s="151"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="149"/>
       <c r="C40" s="150"/>
       <c r="D40" s="150">
@@ -5153,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="150" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F40" s="150"/>
       <c r="G40" s="150"/>
@@ -5164,7 +5050,7 @@
       <c r="L40" s="150"/>
       <c r="M40" s="151"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="149"/>
       <c r="C41" s="150"/>
       <c r="D41" s="150"/>
@@ -5178,7 +5064,7 @@
       <c r="L41" s="150"/>
       <c r="M41" s="151"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="149"/>
       <c r="C42" s="150"/>
       <c r="D42" s="150"/>
@@ -5192,7 +5078,7 @@
       <c r="L42" s="150"/>
       <c r="M42" s="151"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="149"/>
       <c r="C43" s="150"/>
       <c r="D43" s="150"/>
@@ -5206,7 +5092,7 @@
       <c r="L43" s="150"/>
       <c r="M43" s="151"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="149"/>
       <c r="C44" s="150"/>
       <c r="D44" s="150"/>
@@ -5220,7 +5106,7 @@
       <c r="L44" s="150"/>
       <c r="M44" s="151"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="149"/>
       <c r="C45" s="150"/>
       <c r="D45" s="150"/>
@@ -5234,7 +5120,7 @@
       <c r="L45" s="150"/>
       <c r="M45" s="151"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="149"/>
       <c r="C46" s="150"/>
       <c r="D46" s="150"/>
@@ -5248,7 +5134,7 @@
       <c r="L46" s="150"/>
       <c r="M46" s="151"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="149"/>
       <c r="C47" s="150"/>
       <c r="D47" s="150"/>
@@ -5262,10 +5148,10 @@
       <c r="L47" s="150"/>
       <c r="M47" s="151"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="149"/>
       <c r="C48" s="150" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="150"/>
       <c r="E48" s="150"/>
@@ -5278,7 +5164,7 @@
       <c r="L48" s="150"/>
       <c r="M48" s="151"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="149"/>
       <c r="C49" s="150"/>
       <c r="D49" s="150"/>
@@ -5292,7 +5178,7 @@
       <c r="L49" s="150"/>
       <c r="M49" s="151"/>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" s="149"/>
       <c r="C50" s="150"/>
       <c r="D50" s="150"/>
@@ -5306,7 +5192,7 @@
       <c r="L50" s="150"/>
       <c r="M50" s="151"/>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" s="149"/>
       <c r="C51" s="150"/>
       <c r="D51" s="150"/>
@@ -5320,7 +5206,7 @@
       <c r="L51" s="150"/>
       <c r="M51" s="151"/>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" s="149"/>
       <c r="C52" s="150"/>
       <c r="D52" s="150"/>
@@ -5334,7 +5220,7 @@
       <c r="L52" s="150"/>
       <c r="M52" s="151"/>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" s="149"/>
       <c r="C53" s="150"/>
       <c r="D53" s="150"/>
@@ -5348,7 +5234,7 @@
       <c r="L53" s="150"/>
       <c r="M53" s="151"/>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" s="149"/>
       <c r="C54" s="150"/>
       <c r="D54" s="150"/>
@@ -5362,7 +5248,7 @@
       <c r="L54" s="150"/>
       <c r="M54" s="151"/>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" s="149"/>
       <c r="C55" s="150"/>
       <c r="D55" s="150"/>
@@ -5376,7 +5262,7 @@
       <c r="L55" s="150"/>
       <c r="M55" s="151"/>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" s="149"/>
       <c r="C56" s="150"/>
       <c r="D56" s="150"/>
@@ -5390,17 +5276,17 @@
       <c r="L56" s="150"/>
       <c r="M56" s="151"/>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B57" s="149"/>
       <c r="C57" s="150"/>
       <c r="D57" s="150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E57" s="150">
         <v>60</v>
       </c>
       <c r="F57" s="150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G57" s="150"/>
       <c r="H57" s="150"/>
@@ -5410,7 +5296,7 @@
       <c r="L57" s="150"/>
       <c r="M57" s="151"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B58" s="149"/>
       <c r="C58" s="150"/>
       <c r="D58" s="150"/>
@@ -5424,7 +5310,7 @@
       <c r="L58" s="150"/>
       <c r="M58" s="151"/>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B59" s="149"/>
       <c r="C59" s="150"/>
       <c r="D59" s="150"/>
@@ -5438,7 +5324,7 @@
       <c r="L59" s="150"/>
       <c r="M59" s="151"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B60" s="149"/>
       <c r="C60" s="150"/>
       <c r="D60" s="150"/>
@@ -5452,7 +5338,7 @@
       <c r="L60" s="150"/>
       <c r="M60" s="151"/>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B61" s="149"/>
       <c r="C61" s="150"/>
       <c r="D61" s="150"/>
@@ -5466,10 +5352,10 @@
       <c r="L61" s="150"/>
       <c r="M61" s="151"/>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B62" s="149"/>
       <c r="C62" s="150" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D62" s="150"/>
       <c r="E62" s="150"/>
@@ -5482,10 +5368,10 @@
       <c r="L62" s="150"/>
       <c r="M62" s="151"/>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B63" s="149"/>
       <c r="C63" s="150" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D63" s="150"/>
       <c r="E63" s="150"/>
@@ -5498,7 +5384,7 @@
       <c r="L63" s="150"/>
       <c r="M63" s="151"/>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B64" s="149"/>
       <c r="C64" s="150"/>
       <c r="D64" s="150"/>
@@ -5512,7 +5398,7 @@
       <c r="L64" s="150"/>
       <c r="M64" s="151"/>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B65" s="149"/>
       <c r="C65" s="150"/>
       <c r="D65" s="150"/>
@@ -5526,7 +5412,7 @@
       <c r="L65" s="150"/>
       <c r="M65" s="151"/>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B66" s="149"/>
       <c r="C66" s="150"/>
       <c r="D66" s="150"/>
@@ -5540,7 +5426,7 @@
       <c r="L66" s="150"/>
       <c r="M66" s="151"/>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B67" s="149"/>
       <c r="C67" s="150"/>
       <c r="D67" s="150"/>
@@ -5558,7 +5444,7 @@
       <c r="L67" s="150"/>
       <c r="M67" s="151"/>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B68" s="149"/>
       <c r="C68" s="150"/>
       <c r="D68" s="150"/>
@@ -5572,17 +5458,17 @@
       <c r="L68" s="150"/>
       <c r="M68" s="151"/>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B69" s="149"/>
       <c r="C69" s="150"/>
       <c r="D69" s="150" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E69" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="150" t="s">
         <v>146</v>
-      </c>
-      <c r="F69" s="150" t="s">
-        <v>147</v>
       </c>
       <c r="G69" s="150"/>
       <c r="H69" s="150"/>
@@ -5592,17 +5478,17 @@
       <c r="L69" s="150"/>
       <c r="M69" s="151"/>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B70" s="149"/>
       <c r="C70" s="150"/>
       <c r="D70" s="150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E70" s="150">
         <v>700</v>
       </c>
       <c r="F70" s="150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G70" s="150"/>
       <c r="H70" s="150"/>
@@ -5612,7 +5498,7 @@
       <c r="L70" s="150"/>
       <c r="M70" s="151"/>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B71" s="149"/>
       <c r="C71" s="150"/>
       <c r="D71" s="150"/>
@@ -5626,7 +5512,7 @@
       <c r="L71" s="150"/>
       <c r="M71" s="151"/>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B72" s="149"/>
       <c r="C72" s="150"/>
       <c r="D72" s="150"/>
@@ -5640,7 +5526,7 @@
       <c r="L72" s="150"/>
       <c r="M72" s="151"/>
     </row>
-    <row r="73" spans="2:13">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B73" s="149"/>
       <c r="C73" s="150"/>
       <c r="D73" s="150"/>
@@ -5654,7 +5540,7 @@
       <c r="L73" s="150"/>
       <c r="M73" s="151"/>
     </row>
-    <row r="74" spans="2:13">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B74" s="149"/>
       <c r="C74" s="150"/>
       <c r="D74" s="150"/>
@@ -5668,7 +5554,7 @@
       <c r="L74" s="150"/>
       <c r="M74" s="151"/>
     </row>
-    <row r="75" spans="2:13">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B75" s="149"/>
       <c r="C75" s="150"/>
       <c r="D75" s="150"/>
@@ -5682,7 +5568,7 @@
       <c r="L75" s="150"/>
       <c r="M75" s="151"/>
     </row>
-    <row r="76" spans="2:13">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B76" s="149"/>
       <c r="C76" s="150"/>
       <c r="D76" s="150"/>
@@ -5696,7 +5582,7 @@
       <c r="L76" s="150"/>
       <c r="M76" s="151"/>
     </row>
-    <row r="77" spans="2:13">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B77" s="149"/>
       <c r="C77" s="150"/>
       <c r="D77" s="150"/>
@@ -5710,7 +5596,7 @@
       <c r="L77" s="150"/>
       <c r="M77" s="151"/>
     </row>
-    <row r="78" spans="2:13">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B78" s="149"/>
       <c r="C78" s="150"/>
       <c r="D78" s="150"/>
@@ -5728,10 +5614,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_nuclear_gen3_uranium_oxide.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_nuclear_gen3_uranium_oxide.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1BCB43-5575-4A4D-AFF6-C748A4F70E50}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="147">
   <si>
     <t>Source</t>
   </si>
@@ -241,36 +242,6 @@
   </si>
   <si>
     <t>MW</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>Author</t>
@@ -679,13 +650,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1522,7 +1493,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1618,8 +1589,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2073,6 +2042,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2094,7 +2066,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2132,7 +2110,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2170,7 +2154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2630,56 +2620,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>21</v>
@@ -2688,118 +2678,118 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="93"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="97" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="95"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="96" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="98" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="104" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="14" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="105" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="99" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="102"/>
+      <c r="C23" s="106" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="97" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="96" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="101" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="102" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="103" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="105" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="106" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="107" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="104"/>
-      <c r="C23" s="108" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2809,67 +2799,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K46"/>
+  <dimension ref="B1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A19" sqref="A19:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="34"/>
+    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="156" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="158"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="156"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="159"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="162"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="164"/>
+    <row r="4" spans="2:11" ht="42" customHeight="1">
+      <c r="B4" s="160"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2880,12 +2870,12 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="109"/>
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
+      <c r="B7" s="107"/>
       <c r="C7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="108" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2899,9 +2889,9 @@
       <c r="I7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="116"/>
-    </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="J7" s="114"/>
+    </row>
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2912,10 +2902,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2925,10 +2915,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="125" t="s">
-        <v>102</v>
+      <c r="C10" s="123" t="s">
+        <v>92</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -2940,12 +2930,12 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="146" t="s">
-        <v>122</v>
+      <c r="I10" s="144" t="s">
+        <v>112</v>
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>35</v>
@@ -2962,10 +2952,10 @@
       <c r="I11" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="117"/>
+      <c r="J11" s="115"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>36</v>
@@ -2982,10 +2972,10 @@
       <c r="I12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="117"/>
+      <c r="J12" s="115"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>38</v>
@@ -3002,10 +2992,10 @@
       <c r="I13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="117"/>
+      <c r="J13" s="115"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>11</v>
@@ -3022,10 +3012,10 @@
       <c r="I14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="117"/>
+      <c r="J14" s="115"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>41</v>
@@ -3042,10 +3032,10 @@
       <c r="I15" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="117"/>
+      <c r="J15" s="115"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>42</v>
@@ -3062,10 +3052,10 @@
       <c r="I16" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="117"/>
+      <c r="J16" s="115"/>
       <c r="K16" s="32"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>43</v>
@@ -3085,9 +3075,9 @@
       <c r="I17" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="117"/>
-    </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="115"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="37"/>
       <c r="C18" s="33" t="s">
         <v>44</v>
@@ -3106,428 +3096,408 @@
       <c r="I18" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="117"/>
-    </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="115"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="37"/>
-      <c r="C19" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="43">
-        <v>1</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="117"/>
-    </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="82"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="115"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="37"/>
-      <c r="C20" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="43">
-        <v>1</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="117"/>
-    </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="115"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="37"/>
-      <c r="C21" s="64" t="s">
-        <v>66</v>
+      <c r="C21" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="43">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="E21" s="44">
+        <f>'Research data'!G15</f>
+        <v>5610000000</v>
       </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="65" t="s">
-        <v>71</v>
+      <c r="G21" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="H21" s="33"/>
-      <c r="I21" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="117"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="144" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" s="115"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="37"/>
-      <c r="C22" s="64" t="s">
-        <v>67</v>
+      <c r="C22" s="33" t="s">
+        <v>46</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="43">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="E22" s="44">
+        <v>0</v>
       </c>
       <c r="F22" s="33"/>
-      <c r="G22" s="65" t="s">
-        <v>72</v>
+      <c r="G22" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="117"/>
-    </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="115"/>
+    </row>
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="37"/>
-      <c r="C23" s="64" t="s">
-        <v>68</v>
+      <c r="C23" s="33" t="s">
+        <v>13</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E23" s="44">
-        <v>0.88541666666666696</v>
+        <v>0</v>
       </c>
       <c r="F23" s="33"/>
-      <c r="G23" s="66" t="s">
-        <v>73</v>
+      <c r="G23" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J23" s="117"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="115"/>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="37"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="117"/>
-    </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="44">
+        <f>'Research data'!G21</f>
+        <v>772200000</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="144" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" s="115"/>
+    </row>
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="37"/>
-      <c r="C25" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="117"/>
-    </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="109">
+        <f>'Research data'!G17</f>
+        <v>103950000</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="144" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="115"/>
+    </row>
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="44">
-        <f>'Research data'!G15</f>
-        <v>5610000000</v>
+        <v>54</v>
+      </c>
+      <c r="E26" s="43">
+        <f>'Research data'!G19</f>
+        <v>20790</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H26" s="33"/>
-      <c r="I26" s="146" t="s">
-        <v>122</v>
-      </c>
-      <c r="J26" s="117"/>
-    </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="115"/>
+    </row>
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="44">
+        <v>54</v>
+      </c>
+      <c r="E27" s="112">
         <v>0</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="31" t="s">
+      <c r="I27" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="117"/>
-    </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="115"/>
+    </row>
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="44">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E28" s="43">
+        <v>0.12</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="117"/>
-    </row>
-    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="115"/>
+    </row>
+    <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="37"/>
       <c r="C29" s="33" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E29" s="44">
-        <f>'Research data'!G21</f>
-        <v>772200000</v>
+        <v>1</v>
       </c>
       <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="G29" s="33"/>
       <c r="H29" s="33"/>
-      <c r="I29" s="146" t="s">
-        <v>122</v>
-      </c>
-      <c r="J29" s="117"/>
-    </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J29" s="115"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="37"/>
-      <c r="C30" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="111">
-        <f>'Research data'!G17</f>
-        <v>103950000</v>
-      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="113"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="33" t="s">
-        <v>59</v>
-      </c>
+      <c r="G30" s="33"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="146" t="s">
-        <v>122</v>
-      </c>
-      <c r="J30" s="117"/>
-    </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="32"/>
+      <c r="J30" s="115"/>
+    </row>
+    <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="37"/>
-      <c r="C31" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="43">
-        <f>'Research data'!G19</f>
-        <v>20790</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="147" t="s">
-        <v>122</v>
-      </c>
-      <c r="J31" s="117"/>
-    </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="110"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="115"/>
+    </row>
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="114">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E32" s="43">
+        <f>'Research data'!G10</f>
+        <v>5</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="H32" s="33"/>
-      <c r="I32" s="126" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="117"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="144" t="s">
+        <v>118</v>
+      </c>
+      <c r="J32" s="115"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="43">
-        <v>0.12</v>
+        <v>2</v>
+      </c>
+      <c r="E33" s="109">
+        <f>'Research data'!G11</f>
+        <v>6</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="117"/>
-    </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="153" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="115"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E34" s="44">
-        <v>1</v>
+        <f>'Research data'!G12</f>
+        <v>60</v>
       </c>
       <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="G34" s="33" t="s">
+        <v>26</v>
+      </c>
       <c r="H34" s="33"/>
-      <c r="I34" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="117"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I34" s="153" t="s">
+        <v>112</v>
+      </c>
+      <c r="J34" s="115"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="115"/>
+      <c r="C35" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="44">
+        <v>0</v>
+      </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="117"/>
-    </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="115"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
-      <c r="C36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="117"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="109">
+        <v>4400000</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="115"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
-      <c r="C37" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="43">
-        <f>'Research data'!G10</f>
-        <v>5</v>
+      <c r="C37" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="109">
+        <v>0</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="33" t="s">
-        <v>16</v>
-      </c>
+      <c r="G37" s="33"/>
       <c r="H37" s="33"/>
-      <c r="I37" s="146" t="s">
-        <v>128</v>
-      </c>
-      <c r="J37" s="117"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="115"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
-      <c r="C38" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="111">
-        <f>'Research data'!G11</f>
-        <v>6</v>
+      <c r="C38" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="109">
+        <v>1350000</v>
       </c>
       <c r="F38" s="33"/>
-      <c r="G38" s="33" t="s">
-        <v>27</v>
-      </c>
+      <c r="G38" s="33"/>
       <c r="H38" s="33"/>
-      <c r="I38" s="155" t="s">
-        <v>122</v>
-      </c>
-      <c r="J38" s="117"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="115"/>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
-      <c r="C39" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="44">
-        <f>'Research data'!G12</f>
-        <v>60</v>
+      <c r="C39" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="109">
+        <v>270000</v>
       </c>
       <c r="F39" s="33"/>
-      <c r="G39" s="33" t="s">
-        <v>26</v>
-      </c>
+      <c r="G39" s="33"/>
       <c r="H39" s="33"/>
-      <c r="I39" s="155" t="s">
-        <v>122</v>
-      </c>
-      <c r="J39" s="117"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="115"/>
+    </row>
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="37"/>
-      <c r="C40" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="44">
-        <v>0</v>
+      <c r="C40" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="109">
+        <v>900000</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -3535,103 +3505,18 @@
       <c r="I40" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J40" s="117"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="37"/>
-      <c r="C41" s="130" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="111">
-        <v>4400000</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="117"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="37"/>
-      <c r="C42" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="111">
-        <v>0</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J42" s="117"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="37"/>
-      <c r="C43" s="130" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="111">
-        <v>1350000</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" s="117"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="37"/>
-      <c r="C44" s="130" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="111">
-        <v>270000</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J44" s="117"/>
-    </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="37"/>
-      <c r="C45" s="130" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="111">
-        <v>900000</v>
-      </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="117"/>
-    </row>
-    <row r="46" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
+      <c r="J40" s="115"/>
+    </row>
+    <row r="41" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B41" s="38"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3643,8 +3528,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:M24"/>
@@ -3653,82 +3538,82 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="67" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="67" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="67" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="67" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="68" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="68" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="68" customWidth="1"/>
-    <col min="12" max="12" width="3" style="68" customWidth="1"/>
-    <col min="13" max="13" width="60" style="67" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="67"/>
+    <col min="1" max="2" width="3.5" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="65" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="66" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="66" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="66" customWidth="1"/>
+    <col min="12" max="12" width="3" style="66" customWidth="1"/>
+    <col min="13" max="13" width="60" style="65" customWidth="1"/>
+    <col min="14" max="16384" width="10.6640625" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="70"/>
-    </row>
-    <row r="3" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="17" thickBot="1"/>
+    <row r="2" spans="2:13">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="68"/>
+    </row>
+    <row r="3" spans="2:13" s="21" customFormat="1">
       <c r="B3" s="20"/>
-      <c r="C3" s="122" t="s">
-        <v>92</v>
+      <c r="C3" s="120" t="s">
+        <v>82</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="122" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="122"/>
+      <c r="G3" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="120"/>
       <c r="I3" s="62" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J3" s="62"/>
       <c r="K3" s="62" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L3" s="62"/>
-      <c r="M3" s="122" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
+      <c r="M3" s="120" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="72"/>
+    <row r="5" spans="2:13" ht="17" thickBot="1">
+      <c r="B5" s="70"/>
       <c r="C5" s="29" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3739,70 +3624,70 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="136"/>
-    </row>
-    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="72"/>
-      <c r="C6" s="135" t="s">
+      <c r="M5" s="134"/>
+    </row>
+    <row r="6" spans="2:13" ht="17" thickBot="1">
+      <c r="B6" s="70"/>
+      <c r="C6" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="76">
         <f>ROUND(1650,0)</f>
         <v>1650</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78">
+      <c r="H6" s="75"/>
+      <c r="I6" s="76">
         <v>1600</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
       <c r="M6" s="64"/>
     </row>
-    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="72"/>
-      <c r="C7" s="124" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="139" t="s">
+    <row r="7" spans="2:13" ht="17" thickBot="1">
+      <c r="B7" s="70"/>
+      <c r="C7" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="76">
         <f>ROUND(36,0)</f>
         <v>36</v>
       </c>
-      <c r="H7" s="77"/>
-      <c r="I7" s="78">
+      <c r="H7" s="75"/>
+      <c r="I7" s="76">
         <v>36</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
       <c r="M7" s="64"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="72"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="123"/>
-    </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="72"/>
+    <row r="8" spans="2:13">
+      <c r="B8" s="70"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="121"/>
+    </row>
+    <row r="9" spans="2:13" ht="17" thickBot="1">
+      <c r="B9" s="70"/>
       <c r="C9" s="29" t="s">
         <v>8</v>
       </c>
@@ -3817,100 +3702,100 @@
       <c r="L9" s="12"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="72"/>
-      <c r="C10" s="124" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="76" t="s">
+    <row r="10" spans="2:13" ht="17" thickBot="1">
+      <c r="B10" s="70"/>
+      <c r="C10" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="145">
+      <c r="G10" s="143">
         <f>ROUND(5,0)</f>
         <v>5</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="142">
+      <c r="H10" s="78"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="140">
         <f>Notes!E70/0.00024711/1000000/Notes!E67*G6</f>
         <v>4.6740318076969771</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="141" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="72"/>
-      <c r="C11" s="85" t="s">
+      <c r="L10" s="79"/>
+      <c r="M10" s="139" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="17" thickBot="1">
+      <c r="B11" s="70"/>
+      <c r="C11" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="76" t="s">
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="132">
+      <c r="G11" s="130">
         <f>ROUND(6,0)</f>
         <v>6</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="132">
+      <c r="H11" s="79"/>
+      <c r="I11" s="130">
         <f>Notes!D23</f>
         <v>6</v>
       </c>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="134" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="87" t="s">
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="132" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="17" thickBot="1">
+      <c r="B12" s="70"/>
+      <c r="C12" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="76" t="s">
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="86">
         <f>ROUND(60,0)</f>
         <v>60</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="132">
+      <c r="H12" s="79"/>
+      <c r="I12" s="130">
         <f>Notes!E57</f>
         <v>60</v>
       </c>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="128"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="126"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="70"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
       <c r="M13" s="64"/>
     </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="72"/>
+    <row r="14" spans="2:13" ht="17" thickBot="1">
+      <c r="B14" s="70"/>
       <c r="C14" s="13" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -3923,230 +3808,230 @@
       <c r="L14" s="12"/>
       <c r="M14" s="64"/>
     </row>
-    <row r="15" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="72"/>
-      <c r="C15" s="118" t="s">
-        <v>97</v>
+    <row r="15" spans="2:13" ht="17" thickBot="1">
+      <c r="B15" s="70"/>
+      <c r="C15" s="116" t="s">
+        <v>87</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="118" t="s">
+      <c r="F15" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="84">
         <f>ROUND(G16*G6*1000,2)</f>
         <v>5610000000</v>
       </c>
       <c r="H15" s="12"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="129"/>
-    </row>
-    <row r="16" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="72"/>
-      <c r="C16" s="89" t="s">
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="127"/>
+    </row>
+    <row r="16" spans="2:13" ht="17" thickBot="1">
+      <c r="B16" s="70"/>
+      <c r="C16" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="119" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="86">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="117" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="84">
         <f>I16</f>
         <v>3400</v>
       </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="93">
+      <c r="H16" s="79"/>
+      <c r="I16" s="91">
         <f>Notes!D24</f>
         <v>3400</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="138"/>
-    </row>
-    <row r="17" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="72"/>
-      <c r="C17" s="127" t="s">
-        <v>98</v>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="136"/>
+    </row>
+    <row r="17" spans="2:13" ht="17" thickBot="1">
+      <c r="B17" s="70"/>
+      <c r="C17" s="125" t="s">
+        <v>88</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="131" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="90">
+      <c r="F17" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="88">
         <f>ROUND((G18*G6*1000),2)</f>
         <v>103950000</v>
       </c>
       <c r="H17" s="12"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="144"/>
-    </row>
-    <row r="18" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="72"/>
-      <c r="C18" s="118" t="s">
-        <v>99</v>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="142"/>
+    </row>
+    <row r="18" spans="2:13" ht="17" thickBot="1">
+      <c r="B18" s="70"/>
+      <c r="C18" s="116" t="s">
+        <v>89</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="120" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="90">
+      <c r="F18" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="88">
         <f>ROUND(I18,2)</f>
         <v>63</v>
       </c>
       <c r="H18" s="12"/>
-      <c r="I18" s="93">
+      <c r="I18" s="91">
         <f>Notes!D25</f>
         <v>63</v>
       </c>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="144"/>
-    </row>
-    <row r="19" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="72"/>
-      <c r="C19" s="127" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="76" t="s">
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="142"/>
+    </row>
+    <row r="19" spans="2:13" ht="17" thickBot="1">
+      <c r="B19" s="70"/>
+      <c r="C19" s="125" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G19" s="84">
         <f>ROUND(G20*G23/G24,2)</f>
         <v>20790</v>
       </c>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="144" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="72"/>
-      <c r="C20" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="119" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="93">
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="142" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="17" thickBot="1">
+      <c r="B20" s="70"/>
+      <c r="C20" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="117" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="91">
         <f>ROUND(I20,1)</f>
         <v>12.6</v>
       </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="93">
+      <c r="H20" s="79"/>
+      <c r="I20" s="91">
         <f>Notes!D27</f>
         <v>12.6</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="134"/>
-    </row>
-    <row r="21" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="72"/>
-      <c r="C21" s="124" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="137" t="s">
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="132"/>
+    </row>
+    <row r="21" spans="2:13" ht="17" thickBot="1">
+      <c r="B21" s="70"/>
+      <c r="C21" s="122" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="93">
+      <c r="G21" s="91">
         <f>ROUND(G22*G23*G12,2)</f>
         <v>772200000</v>
       </c>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="134"/>
-    </row>
-    <row r="22" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="72"/>
-      <c r="C22" s="124" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="143" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="93">
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="132"/>
+    </row>
+    <row r="22" spans="2:13" ht="17" thickBot="1">
+      <c r="B22" s="70"/>
+      <c r="C22" s="122" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="91">
         <f>ROUND(I22,0)</f>
         <v>1</v>
       </c>
-      <c r="H22" s="81"/>
-      <c r="I22" s="93">
+      <c r="H22" s="79"/>
+      <c r="I22" s="91">
         <f>Notes!D40</f>
         <v>1</v>
       </c>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="134" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="72"/>
-      <c r="C23" s="124" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="137" t="s">
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="G23" s="93">
+    </row>
+    <row r="23" spans="2:13" ht="17" thickBot="1">
+      <c r="B23" s="70"/>
+      <c r="C23" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="135" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="91">
         <f>G24*G6</f>
         <v>12870000</v>
       </c>
-      <c r="H23" s="81"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="134"/>
-    </row>
-    <row r="24" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="72"/>
-      <c r="C24" s="124" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="137" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="93">
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="132"/>
+    </row>
+    <row r="24" spans="2:13" ht="17" thickBot="1">
+      <c r="B24" s="70"/>
+      <c r="C24" s="122" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="135" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="91">
         <v>7800</v>
       </c>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="134"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="132"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4155,8 +4040,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K17"/>
@@ -4165,22 +4050,22 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
     <col min="10" max="10" width="34" style="46" customWidth="1"/>
-    <col min="11" max="11" width="51.5703125" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="45"/>
+    <col min="11" max="11" width="51.5" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -4192,7 +4077,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>23</v>
@@ -4206,7 +4091,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -4218,7 +4103,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>31</v>
@@ -4234,19 +4119,19 @@
         <v>32</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>62</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -4258,12 +4143,12 @@
       <c r="J6" s="52"/>
       <c r="K6" s="51"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="50"/>
       <c r="C7" s="59"/>
       <c r="D7" s="58"/>
       <c r="E7" s="53" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F7" s="58" t="s">
         <v>10</v>
@@ -4272,20 +4157,20 @@
         <v>2011</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I7" s="58"/>
       <c r="J7" s="61" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="K7" s="58" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="50"/>
       <c r="C8" s="59" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D8" s="58"/>
       <c r="E8" s="53"/>
@@ -4296,10 +4181,10 @@
       <c r="J8" s="61"/>
       <c r="K8" s="58"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="50"/>
       <c r="C9" s="59" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="53"/>
@@ -4310,7 +4195,7 @@
       <c r="J9" s="61"/>
       <c r="K9" s="58"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="50"/>
       <c r="C10" s="59" t="s">
         <v>60</v>
@@ -4324,10 +4209,10 @@
       <c r="J10" s="61"/>
       <c r="K10" s="58"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="50"/>
       <c r="C11" s="59" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="53"/>
@@ -4338,7 +4223,7 @@
       <c r="J11" s="61"/>
       <c r="K11" s="58"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="50"/>
       <c r="C12" s="59" t="s">
         <v>6</v>
@@ -4352,7 +4237,7 @@
       <c r="J12" s="61"/>
       <c r="K12" s="58"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="50"/>
       <c r="C13" s="59" t="s">
         <v>1</v>
@@ -4366,10 +4251,10 @@
       <c r="J13" s="61"/>
       <c r="K13" s="58"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="50"/>
       <c r="C14" s="59" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="53"/>
@@ -4380,7 +4265,7 @@
       <c r="J14" s="61"/>
       <c r="K14" s="58"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="50"/>
       <c r="C15" s="59"/>
       <c r="D15" s="58"/>
@@ -4392,15 +4277,15 @@
       <c r="J15" s="61"/>
       <c r="K15" s="58"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="50"/>
       <c r="C16" s="59"/>
       <c r="D16" s="58"/>
       <c r="E16" s="53" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G16" s="63">
         <v>2009</v>
@@ -4410,16 +4295,16 @@
       </c>
       <c r="I16" s="58"/>
       <c r="J16" s="61" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K16" s="60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="50"/>
       <c r="C17" s="59" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="53"/>
@@ -4432,7 +4317,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K16" r:id="rId1"/>
+    <hyperlink ref="K16" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4440,1175 +4325,1175 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="148" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="148" customWidth="1"/>
-    <col min="3" max="3" width="15" style="148" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="148"/>
+    <col min="1" max="1" width="6.5" style="146" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="146" customWidth="1"/>
+    <col min="3" max="3" width="15" style="146" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="146"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="152"/>
-      <c r="C2" s="153" t="s">
+    <row r="1" spans="2:13" ht="17" thickBot="1"/>
+    <row r="2" spans="2:13" s="21" customFormat="1">
+      <c r="B2" s="150"/>
+      <c r="C2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="153" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="154"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="149"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="151"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="149"/>
-      <c r="C4" s="150" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="151"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="149"/>
-      <c r="C5" s="150" t="s">
+      <c r="D2" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="152"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="147"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="149"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="147"/>
+      <c r="C4" s="148" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="149"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="147"/>
+      <c r="C5" s="148" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="149"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="147"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="149"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="147"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="149"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="147"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="149"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="147"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="149"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="147"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="148"/>
+      <c r="M10" s="149"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="147"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="149"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="147"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="148"/>
+      <c r="M12" s="149"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="147"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="148"/>
+      <c r="M13" s="149"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="147"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="149"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="147"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="149"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="147"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="149"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="147"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="149"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="147"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="149"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="147"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="149"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="147"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="149"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="147"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="149"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="147"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="149"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="147"/>
+      <c r="C23" s="148" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="148">
+        <v>6</v>
+      </c>
+      <c r="E23" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="149"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="147"/>
+      <c r="C24" s="148" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="148">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="148"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="149"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="147"/>
+      <c r="C25" s="148" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="148">
+        <v>63</v>
+      </c>
+      <c r="E25" s="148" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="149"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="147"/>
+      <c r="C26" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="151"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="149"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="151"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="149"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="151"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="149"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="150"/>
-      <c r="M8" s="151"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="149"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="151"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="149"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="151"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="149"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="151"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="149"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="151"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="149"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="151"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="149"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="151"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="149"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="151"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="149"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="151"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="149"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="150"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="151"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="149"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="151"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="149"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="151"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="149"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="151"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="149"/>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="151"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="149"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="151"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="149"/>
-      <c r="C23" s="150" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="150">
-        <v>6</v>
-      </c>
-      <c r="E23" s="150" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="151"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="149"/>
-      <c r="C24" s="150" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="150">
-        <v>3400</v>
-      </c>
-      <c r="E24" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="151"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="149"/>
-      <c r="C25" s="150" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="150">
-        <v>63</v>
-      </c>
-      <c r="E25" s="150" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="151"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="149"/>
-      <c r="C26" s="150" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="150">
+      <c r="D26" s="148">
         <v>1.26</v>
       </c>
-      <c r="E26" s="150" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="151"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="149"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150">
+      <c r="E26" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="149"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="147"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148">
         <f>1.26*1000/100</f>
         <v>12.6</v>
       </c>
-      <c r="E27" s="150" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="151"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="149"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="151"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="149"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="151"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="149"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="151"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="149"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="151"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="149"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="151"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="149"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="151"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="149"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="151"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="149"/>
-      <c r="C35" s="150"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="151"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="149"/>
-      <c r="C36" s="150"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="151"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="149"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="151"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="149"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="151"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="149"/>
-      <c r="C39" s="150" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="150">
+      <c r="E27" s="148" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="149"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="147"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="149"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="147"/>
+      <c r="C29" s="148"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="149"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="147"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="149"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="147"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="149"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="147"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="149"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="147"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="149"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="147"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="149"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="147"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="149"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="147"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="149"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="147"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="149"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="147"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="149"/>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="147"/>
+      <c r="C39" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="148">
         <v>0.1</v>
       </c>
-      <c r="E39" s="150" t="s">
-        <v>138</v>
-      </c>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="151"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="149"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150">
+      <c r="E39" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="149"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="147"/>
+      <c r="C40" s="148"/>
+      <c r="D40" s="148">
         <f>D39*1000/100</f>
         <v>1</v>
       </c>
-      <c r="E40" s="150" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="151"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="149"/>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="151"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="149"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="151"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B43" s="149"/>
-      <c r="C43" s="150"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="151"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="149"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="150"/>
-      <c r="K44" s="150"/>
-      <c r="L44" s="150"/>
-      <c r="M44" s="151"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B45" s="149"/>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="150"/>
-      <c r="G45" s="150"/>
-      <c r="H45" s="150"/>
-      <c r="I45" s="150"/>
-      <c r="J45" s="150"/>
-      <c r="K45" s="150"/>
-      <c r="L45" s="150"/>
-      <c r="M45" s="151"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B46" s="149"/>
-      <c r="C46" s="150"/>
-      <c r="D46" s="150"/>
-      <c r="E46" s="150"/>
-      <c r="F46" s="150"/>
-      <c r="G46" s="150"/>
-      <c r="H46" s="150"/>
-      <c r="I46" s="150"/>
-      <c r="J46" s="150"/>
-      <c r="K46" s="150"/>
-      <c r="L46" s="150"/>
-      <c r="M46" s="151"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B47" s="149"/>
-      <c r="C47" s="150"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="150"/>
-      <c r="J47" s="150"/>
-      <c r="K47" s="150"/>
-      <c r="L47" s="150"/>
-      <c r="M47" s="151"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B48" s="149"/>
-      <c r="C48" s="150" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="150"/>
-      <c r="E48" s="150"/>
-      <c r="F48" s="150"/>
-      <c r="G48" s="150"/>
-      <c r="H48" s="150"/>
-      <c r="I48" s="150"/>
-      <c r="J48" s="150"/>
-      <c r="K48" s="150"/>
-      <c r="L48" s="150"/>
-      <c r="M48" s="151"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B49" s="149"/>
-      <c r="C49" s="150"/>
-      <c r="D49" s="150"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="150"/>
-      <c r="G49" s="150"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="150"/>
-      <c r="J49" s="150"/>
-      <c r="K49" s="150"/>
-      <c r="L49" s="150"/>
-      <c r="M49" s="151"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B50" s="149"/>
-      <c r="C50" s="150"/>
-      <c r="D50" s="150"/>
-      <c r="E50" s="150"/>
-      <c r="F50" s="150"/>
-      <c r="G50" s="150"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="150"/>
-      <c r="J50" s="150"/>
-      <c r="K50" s="150"/>
-      <c r="L50" s="150"/>
-      <c r="M50" s="151"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="149"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="150"/>
-      <c r="E51" s="150"/>
-      <c r="F51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="150"/>
-      <c r="K51" s="150"/>
-      <c r="L51" s="150"/>
-      <c r="M51" s="151"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B52" s="149"/>
-      <c r="C52" s="150"/>
-      <c r="D52" s="150"/>
-      <c r="E52" s="150"/>
-      <c r="F52" s="150"/>
-      <c r="G52" s="150"/>
-      <c r="H52" s="150"/>
-      <c r="I52" s="150"/>
-      <c r="J52" s="150"/>
-      <c r="K52" s="150"/>
-      <c r="L52" s="150"/>
-      <c r="M52" s="151"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B53" s="149"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="150"/>
-      <c r="E53" s="150"/>
-      <c r="F53" s="150"/>
-      <c r="G53" s="150"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="150"/>
-      <c r="J53" s="150"/>
-      <c r="K53" s="150"/>
-      <c r="L53" s="150"/>
-      <c r="M53" s="151"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B54" s="149"/>
-      <c r="C54" s="150"/>
-      <c r="D54" s="150"/>
-      <c r="E54" s="150"/>
-      <c r="F54" s="150"/>
-      <c r="G54" s="150"/>
-      <c r="H54" s="150"/>
-      <c r="I54" s="150"/>
-      <c r="J54" s="150"/>
-      <c r="K54" s="150"/>
-      <c r="L54" s="150"/>
-      <c r="M54" s="151"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B55" s="149"/>
-      <c r="C55" s="150"/>
-      <c r="D55" s="150"/>
-      <c r="E55" s="150"/>
-      <c r="F55" s="150"/>
-      <c r="G55" s="150"/>
-      <c r="H55" s="150"/>
-      <c r="I55" s="150"/>
-      <c r="J55" s="150"/>
-      <c r="K55" s="150"/>
-      <c r="L55" s="150"/>
-      <c r="M55" s="151"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B56" s="149"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="150"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="150"/>
-      <c r="G56" s="150"/>
-      <c r="H56" s="150"/>
-      <c r="I56" s="150"/>
-      <c r="J56" s="150"/>
-      <c r="K56" s="150"/>
-      <c r="L56" s="150"/>
-      <c r="M56" s="151"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B57" s="149"/>
-      <c r="C57" s="150"/>
-      <c r="D57" s="150" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="150">
+      <c r="E40" s="148" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="149"/>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="147"/>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="149"/>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="147"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="149"/>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="147"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="149"/>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="147"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="148"/>
+      <c r="K44" s="148"/>
+      <c r="L44" s="148"/>
+      <c r="M44" s="149"/>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="147"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="148"/>
+      <c r="I45" s="148"/>
+      <c r="J45" s="148"/>
+      <c r="K45" s="148"/>
+      <c r="L45" s="148"/>
+      <c r="M45" s="149"/>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="147"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="148"/>
+      <c r="I46" s="148"/>
+      <c r="J46" s="148"/>
+      <c r="K46" s="148"/>
+      <c r="L46" s="148"/>
+      <c r="M46" s="149"/>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="147"/>
+      <c r="C47" s="148"/>
+      <c r="D47" s="148"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="148"/>
+      <c r="K47" s="148"/>
+      <c r="L47" s="148"/>
+      <c r="M47" s="149"/>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="147"/>
+      <c r="C48" s="148" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="148"/>
+      <c r="M48" s="149"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="147"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="148"/>
+      <c r="K49" s="148"/>
+      <c r="L49" s="148"/>
+      <c r="M49" s="149"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="147"/>
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="148"/>
+      <c r="K50" s="148"/>
+      <c r="L50" s="148"/>
+      <c r="M50" s="149"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="147"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
+      <c r="J51" s="148"/>
+      <c r="K51" s="148"/>
+      <c r="L51" s="148"/>
+      <c r="M51" s="149"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="147"/>
+      <c r="C52" s="148"/>
+      <c r="D52" s="148"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="148"/>
+      <c r="G52" s="148"/>
+      <c r="H52" s="148"/>
+      <c r="I52" s="148"/>
+      <c r="J52" s="148"/>
+      <c r="K52" s="148"/>
+      <c r="L52" s="148"/>
+      <c r="M52" s="149"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="147"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="148"/>
+      <c r="K53" s="148"/>
+      <c r="L53" s="148"/>
+      <c r="M53" s="149"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="147"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="148"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="148"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="148"/>
+      <c r="J54" s="148"/>
+      <c r="K54" s="148"/>
+      <c r="L54" s="148"/>
+      <c r="M54" s="149"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="147"/>
+      <c r="C55" s="148"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="148"/>
+      <c r="J55" s="148"/>
+      <c r="K55" s="148"/>
+      <c r="L55" s="148"/>
+      <c r="M55" s="149"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="147"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="148"/>
+      <c r="K56" s="148"/>
+      <c r="L56" s="148"/>
+      <c r="M56" s="149"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="147"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="148" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="148">
         <v>60</v>
       </c>
-      <c r="F57" s="150" t="s">
+      <c r="F57" s="148" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" s="148"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="148"/>
+      <c r="K57" s="148"/>
+      <c r="L57" s="148"/>
+      <c r="M57" s="149"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="147"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="148"/>
+      <c r="G58" s="148"/>
+      <c r="H58" s="148"/>
+      <c r="I58" s="148"/>
+      <c r="J58" s="148"/>
+      <c r="K58" s="148"/>
+      <c r="L58" s="148"/>
+      <c r="M58" s="149"/>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="147"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="148"/>
+      <c r="G59" s="148"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="148"/>
+      <c r="J59" s="148"/>
+      <c r="K59" s="148"/>
+      <c r="L59" s="148"/>
+      <c r="M59" s="149"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="147"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="148"/>
+      <c r="L60" s="148"/>
+      <c r="M60" s="149"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="147"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="148"/>
+      <c r="L61" s="148"/>
+      <c r="M61" s="149"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="147"/>
+      <c r="C62" s="148" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="148"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="148"/>
+      <c r="L62" s="148"/>
+      <c r="M62" s="149"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="147"/>
+      <c r="C63" s="148" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="148"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="148"/>
+      <c r="H63" s="148"/>
+      <c r="I63" s="148"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="148"/>
+      <c r="L63" s="148"/>
+      <c r="M63" s="149"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="147"/>
+      <c r="C64" s="148"/>
+      <c r="D64" s="148"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="148"/>
+      <c r="G64" s="148"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="148"/>
+      <c r="J64" s="148"/>
+      <c r="K64" s="148"/>
+      <c r="L64" s="148"/>
+      <c r="M64" s="149"/>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65" s="147"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="148"/>
+      <c r="G65" s="148"/>
+      <c r="H65" s="148"/>
+      <c r="I65" s="148"/>
+      <c r="J65" s="148"/>
+      <c r="K65" s="148"/>
+      <c r="L65" s="148"/>
+      <c r="M65" s="149"/>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="B66" s="147"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="148"/>
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="J66" s="148"/>
+      <c r="K66" s="148"/>
+      <c r="L66" s="148"/>
+      <c r="M66" s="149"/>
+    </row>
+    <row r="67" spans="2:13">
+      <c r="B67" s="147"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="148">
+        <v>1000</v>
+      </c>
+      <c r="F67" s="148" t="s">
+        <v>63</v>
+      </c>
+      <c r="G67" s="148"/>
+      <c r="H67" s="148"/>
+      <c r="I67" s="148"/>
+      <c r="J67" s="148"/>
+      <c r="K67" s="148"/>
+      <c r="L67" s="148"/>
+      <c r="M67" s="149"/>
+    </row>
+    <row r="68" spans="2:13">
+      <c r="B68" s="147"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="148"/>
+      <c r="F68" s="148"/>
+      <c r="G68" s="148"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="J68" s="148"/>
+      <c r="K68" s="148"/>
+      <c r="L68" s="148"/>
+      <c r="M68" s="149"/>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69" s="147"/>
+      <c r="C69" s="148"/>
+      <c r="D69" s="148" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="148" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" s="148" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" s="148"/>
+      <c r="H69" s="148"/>
+      <c r="I69" s="148"/>
+      <c r="J69" s="148"/>
+      <c r="K69" s="148"/>
+      <c r="L69" s="148"/>
+      <c r="M69" s="149"/>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70" s="147"/>
+      <c r="C70" s="148"/>
+      <c r="D70" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="G57" s="150"/>
-      <c r="H57" s="150"/>
-      <c r="I57" s="150"/>
-      <c r="J57" s="150"/>
-      <c r="K57" s="150"/>
-      <c r="L57" s="150"/>
-      <c r="M57" s="151"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B58" s="149"/>
-      <c r="C58" s="150"/>
-      <c r="D58" s="150"/>
-      <c r="E58" s="150"/>
-      <c r="F58" s="150"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
-      <c r="J58" s="150"/>
-      <c r="K58" s="150"/>
-      <c r="L58" s="150"/>
-      <c r="M58" s="151"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B59" s="149"/>
-      <c r="C59" s="150"/>
-      <c r="D59" s="150"/>
-      <c r="E59" s="150"/>
-      <c r="F59" s="150"/>
-      <c r="G59" s="150"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="150"/>
-      <c r="J59" s="150"/>
-      <c r="K59" s="150"/>
-      <c r="L59" s="150"/>
-      <c r="M59" s="151"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B60" s="149"/>
-      <c r="C60" s="150"/>
-      <c r="D60" s="150"/>
-      <c r="E60" s="150"/>
-      <c r="F60" s="150"/>
-      <c r="G60" s="150"/>
-      <c r="H60" s="150"/>
-      <c r="I60" s="150"/>
-      <c r="J60" s="150"/>
-      <c r="K60" s="150"/>
-      <c r="L60" s="150"/>
-      <c r="M60" s="151"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B61" s="149"/>
-      <c r="C61" s="150"/>
-      <c r="D61" s="150"/>
-      <c r="E61" s="150"/>
-      <c r="F61" s="150"/>
-      <c r="G61" s="150"/>
-      <c r="H61" s="150"/>
-      <c r="I61" s="150"/>
-      <c r="J61" s="150"/>
-      <c r="K61" s="150"/>
-      <c r="L61" s="150"/>
-      <c r="M61" s="151"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B62" s="149"/>
-      <c r="C62" s="150" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="150"/>
-      <c r="E62" s="150"/>
-      <c r="F62" s="150"/>
-      <c r="G62" s="150"/>
-      <c r="H62" s="150"/>
-      <c r="I62" s="150"/>
-      <c r="J62" s="150"/>
-      <c r="K62" s="150"/>
-      <c r="L62" s="150"/>
-      <c r="M62" s="151"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B63" s="149"/>
-      <c r="C63" s="150" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" s="150"/>
-      <c r="E63" s="150"/>
-      <c r="F63" s="150"/>
-      <c r="G63" s="150"/>
-      <c r="H63" s="150"/>
-      <c r="I63" s="150"/>
-      <c r="J63" s="150"/>
-      <c r="K63" s="150"/>
-      <c r="L63" s="150"/>
-      <c r="M63" s="151"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B64" s="149"/>
-      <c r="C64" s="150"/>
-      <c r="D64" s="150"/>
-      <c r="E64" s="150"/>
-      <c r="F64" s="150"/>
-      <c r="G64" s="150"/>
-      <c r="H64" s="150"/>
-      <c r="I64" s="150"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="150"/>
-      <c r="L64" s="150"/>
-      <c r="M64" s="151"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B65" s="149"/>
-      <c r="C65" s="150"/>
-      <c r="D65" s="150"/>
-      <c r="E65" s="150"/>
-      <c r="F65" s="150"/>
-      <c r="G65" s="150"/>
-      <c r="H65" s="150"/>
-      <c r="I65" s="150"/>
-      <c r="J65" s="150"/>
-      <c r="K65" s="150"/>
-      <c r="L65" s="150"/>
-      <c r="M65" s="151"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B66" s="149"/>
-      <c r="C66" s="150"/>
-      <c r="D66" s="150"/>
-      <c r="E66" s="150"/>
-      <c r="F66" s="150"/>
-      <c r="G66" s="150"/>
-      <c r="H66" s="150"/>
-      <c r="I66" s="150"/>
-      <c r="J66" s="150"/>
-      <c r="K66" s="150"/>
-      <c r="L66" s="150"/>
-      <c r="M66" s="151"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B67" s="149"/>
-      <c r="C67" s="150"/>
-      <c r="D67" s="150"/>
-      <c r="E67" s="150">
-        <v>1000</v>
-      </c>
-      <c r="F67" s="150" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67" s="150"/>
-      <c r="H67" s="150"/>
-      <c r="I67" s="150"/>
-      <c r="J67" s="150"/>
-      <c r="K67" s="150"/>
-      <c r="L67" s="150"/>
-      <c r="M67" s="151"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B68" s="149"/>
-      <c r="C68" s="150"/>
-      <c r="D68" s="150"/>
-      <c r="E68" s="150"/>
-      <c r="F68" s="150"/>
-      <c r="G68" s="150"/>
-      <c r="H68" s="150"/>
-      <c r="I68" s="150"/>
-      <c r="J68" s="150"/>
-      <c r="K68" s="150"/>
-      <c r="L68" s="150"/>
-      <c r="M68" s="151"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B69" s="149"/>
-      <c r="C69" s="150"/>
-      <c r="D69" s="150" t="s">
-        <v>115</v>
-      </c>
-      <c r="E69" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="F69" s="150" t="s">
-        <v>146</v>
-      </c>
-      <c r="G69" s="150"/>
-      <c r="H69" s="150"/>
-      <c r="I69" s="150"/>
-      <c r="J69" s="150"/>
-      <c r="K69" s="150"/>
-      <c r="L69" s="150"/>
-      <c r="M69" s="151"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B70" s="149"/>
-      <c r="C70" s="150"/>
-      <c r="D70" s="150" t="s">
-        <v>147</v>
-      </c>
-      <c r="E70" s="150">
+      <c r="E70" s="148">
         <v>700</v>
       </c>
-      <c r="F70" s="150" t="s">
-        <v>146</v>
-      </c>
-      <c r="G70" s="150"/>
-      <c r="H70" s="150"/>
-      <c r="I70" s="150"/>
-      <c r="J70" s="150"/>
-      <c r="K70" s="150"/>
-      <c r="L70" s="150"/>
-      <c r="M70" s="151"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B71" s="149"/>
-      <c r="C71" s="150"/>
-      <c r="D71" s="150"/>
-      <c r="E71" s="150"/>
-      <c r="F71" s="150"/>
-      <c r="G71" s="150"/>
-      <c r="H71" s="150"/>
-      <c r="I71" s="150"/>
-      <c r="J71" s="150"/>
-      <c r="K71" s="150"/>
-      <c r="L71" s="150"/>
-      <c r="M71" s="151"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B72" s="149"/>
-      <c r="C72" s="150"/>
-      <c r="D72" s="150"/>
-      <c r="E72" s="150"/>
-      <c r="F72" s="150"/>
-      <c r="G72" s="150"/>
-      <c r="H72" s="150"/>
-      <c r="I72" s="150"/>
-      <c r="J72" s="150"/>
-      <c r="K72" s="150"/>
-      <c r="L72" s="150"/>
-      <c r="M72" s="151"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B73" s="149"/>
-      <c r="C73" s="150"/>
-      <c r="D73" s="150"/>
-      <c r="E73" s="150"/>
-      <c r="F73" s="150"/>
-      <c r="G73" s="150"/>
-      <c r="H73" s="150"/>
-      <c r="I73" s="150"/>
-      <c r="J73" s="150"/>
-      <c r="K73" s="150"/>
-      <c r="L73" s="150"/>
-      <c r="M73" s="151"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B74" s="149"/>
-      <c r="C74" s="150"/>
-      <c r="D74" s="150"/>
-      <c r="E74" s="150"/>
-      <c r="F74" s="150"/>
-      <c r="G74" s="150"/>
-      <c r="H74" s="150"/>
-      <c r="I74" s="150"/>
-      <c r="J74" s="150"/>
-      <c r="K74" s="150"/>
-      <c r="L74" s="150"/>
-      <c r="M74" s="151"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B75" s="149"/>
-      <c r="C75" s="150"/>
-      <c r="D75" s="150"/>
-      <c r="E75" s="150"/>
-      <c r="F75" s="150"/>
-      <c r="G75" s="150"/>
-      <c r="H75" s="150"/>
-      <c r="I75" s="150"/>
-      <c r="J75" s="150"/>
-      <c r="K75" s="150"/>
-      <c r="L75" s="150"/>
-      <c r="M75" s="151"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B76" s="149"/>
-      <c r="C76" s="150"/>
-      <c r="D76" s="150"/>
-      <c r="E76" s="150"/>
-      <c r="F76" s="150"/>
-      <c r="G76" s="150"/>
-      <c r="H76" s="150"/>
-      <c r="I76" s="150"/>
-      <c r="J76" s="150"/>
-      <c r="K76" s="150"/>
-      <c r="L76" s="150"/>
-      <c r="M76" s="151"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B77" s="149"/>
-      <c r="C77" s="150"/>
-      <c r="D77" s="150"/>
-      <c r="E77" s="150"/>
-      <c r="F77" s="150"/>
-      <c r="G77" s="150"/>
-      <c r="H77" s="150"/>
-      <c r="I77" s="150"/>
-      <c r="J77" s="150"/>
-      <c r="K77" s="150"/>
-      <c r="L77" s="150"/>
-      <c r="M77" s="151"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B78" s="149"/>
-      <c r="C78" s="150"/>
-      <c r="D78" s="150"/>
-      <c r="E78" s="150"/>
-      <c r="F78" s="150"/>
-      <c r="G78" s="150"/>
-      <c r="H78" s="150"/>
-      <c r="I78" s="150"/>
-      <c r="J78" s="150"/>
-      <c r="K78" s="150"/>
-      <c r="L78" s="150"/>
-      <c r="M78" s="151"/>
+      <c r="F70" s="148" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="148"/>
+      <c r="H70" s="148"/>
+      <c r="I70" s="148"/>
+      <c r="J70" s="148"/>
+      <c r="K70" s="148"/>
+      <c r="L70" s="148"/>
+      <c r="M70" s="149"/>
+    </row>
+    <row r="71" spans="2:13">
+      <c r="B71" s="147"/>
+      <c r="C71" s="148"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="148"/>
+      <c r="F71" s="148"/>
+      <c r="G71" s="148"/>
+      <c r="H71" s="148"/>
+      <c r="I71" s="148"/>
+      <c r="J71" s="148"/>
+      <c r="K71" s="148"/>
+      <c r="L71" s="148"/>
+      <c r="M71" s="149"/>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72" s="147"/>
+      <c r="C72" s="148"/>
+      <c r="D72" s="148"/>
+      <c r="E72" s="148"/>
+      <c r="F72" s="148"/>
+      <c r="G72" s="148"/>
+      <c r="H72" s="148"/>
+      <c r="I72" s="148"/>
+      <c r="J72" s="148"/>
+      <c r="K72" s="148"/>
+      <c r="L72" s="148"/>
+      <c r="M72" s="149"/>
+    </row>
+    <row r="73" spans="2:13">
+      <c r="B73" s="147"/>
+      <c r="C73" s="148"/>
+      <c r="D73" s="148"/>
+      <c r="E73" s="148"/>
+      <c r="F73" s="148"/>
+      <c r="G73" s="148"/>
+      <c r="H73" s="148"/>
+      <c r="I73" s="148"/>
+      <c r="J73" s="148"/>
+      <c r="K73" s="148"/>
+      <c r="L73" s="148"/>
+      <c r="M73" s="149"/>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74" s="147"/>
+      <c r="C74" s="148"/>
+      <c r="D74" s="148"/>
+      <c r="E74" s="148"/>
+      <c r="F74" s="148"/>
+      <c r="G74" s="148"/>
+      <c r="H74" s="148"/>
+      <c r="I74" s="148"/>
+      <c r="J74" s="148"/>
+      <c r="K74" s="148"/>
+      <c r="L74" s="148"/>
+      <c r="M74" s="149"/>
+    </row>
+    <row r="75" spans="2:13">
+      <c r="B75" s="147"/>
+      <c r="C75" s="148"/>
+      <c r="D75" s="148"/>
+      <c r="E75" s="148"/>
+      <c r="F75" s="148"/>
+      <c r="G75" s="148"/>
+      <c r="H75" s="148"/>
+      <c r="I75" s="148"/>
+      <c r="J75" s="148"/>
+      <c r="K75" s="148"/>
+      <c r="L75" s="148"/>
+      <c r="M75" s="149"/>
+    </row>
+    <row r="76" spans="2:13">
+      <c r="B76" s="147"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
+      <c r="K76" s="148"/>
+      <c r="L76" s="148"/>
+      <c r="M76" s="149"/>
+    </row>
+    <row r="77" spans="2:13">
+      <c r="B77" s="147"/>
+      <c r="C77" s="148"/>
+      <c r="D77" s="148"/>
+      <c r="E77" s="148"/>
+      <c r="F77" s="148"/>
+      <c r="G77" s="148"/>
+      <c r="H77" s="148"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="148"/>
+      <c r="K77" s="148"/>
+      <c r="L77" s="148"/>
+      <c r="M77" s="149"/>
+    </row>
+    <row r="78" spans="2:13">
+      <c r="B78" s="147"/>
+      <c r="C78" s="148"/>
+      <c r="D78" s="148"/>
+      <c r="E78" s="148"/>
+      <c r="F78" s="148"/>
+      <c r="G78" s="148"/>
+      <c r="H78" s="148"/>
+      <c r="I78" s="148"/>
+      <c r="J78" s="148"/>
+      <c r="K78" s="148"/>
+      <c r="L78" s="148"/>
+      <c r="M78" s="149"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/energy/energy_power_nuclear_gen3_uranium_oxide.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_power_nuclear_gen3_uranium_oxide.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1BCB43-5575-4A4D-AFF6-C748A4F70E50}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BF6ACC-3CFA-064F-95EB-CD6C416B3476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="148">
   <si>
     <t>Source</t>
   </si>
@@ -645,6 +651,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1502,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1779,6 +1788,7 @@
     <xf numFmtId="0" fontId="32" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="254">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2626,12 +2636,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2805,23 +2815,23 @@
   </sheetPr>
   <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3282,15 +3292,15 @@
         <v>3</v>
       </c>
       <c r="E28" s="43">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33" t="s">
         <v>24</v>
       </c>
       <c r="H28" s="33"/>
-      <c r="I28" s="31" t="s">
-        <v>56</v>
+      <c r="I28" s="163" t="s">
+        <v>147</v>
       </c>
       <c r="J28" s="115"/>
     </row>
@@ -3538,21 +3548,21 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="65" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="65" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="66" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="66" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="65" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="65" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="66" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="66" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="66" customWidth="1"/>
     <col min="12" max="12" width="3" style="66" customWidth="1"/>
     <col min="13" max="13" width="60" style="65" customWidth="1"/>
-    <col min="14" max="16384" width="10.6640625" style="65"/>
+    <col min="14" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1"/>
@@ -4050,18 +4060,18 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
     <col min="10" max="10" width="34" style="46" customWidth="1"/>
-    <col min="11" max="11" width="51.5" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.1640625" style="45"/>
+    <col min="11" max="11" width="51.42578125" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -4332,12 +4342,12 @@
       <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="146" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="146" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="146" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="146" customWidth="1"/>
     <col min="3" max="3" width="15" style="146" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="146"/>
+    <col min="4" max="16384" width="10.7109375" style="146"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1"/>
